--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234416.41</v>
+        <v>1394099.85</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33488.06</v>
+        <v>77449.99000000001</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59809.18</v>
+        <v>59142.3</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119819.24</v>
+        <v>120091.07</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7159.34</v>
+        <v>5898.56</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35955.07</v>
+        <v>34995.49</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,117 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11673.58</v>
+        <v>11970.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>94981.28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4283.53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12720.45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>317308.37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>555460.21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>37264.82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>98318.11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20730.87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11038.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9896.459999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,143 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394099.85</v>
+        <v>59122.34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58726.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77449.99000000001</v>
+        <v>95731.47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>94707.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59142.3</v>
+        <v>43524.21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41878.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120091.07</v>
+        <v>9903.33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9904.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11038.79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11053.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5898.56</v>
+        <v>12715.35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12684.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>316492.23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>316993.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34995.49</v>
+        <v>557617.29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>557793.5699999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11970.17</v>
+        <v>94555.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>94597.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94981.28</v>
+        <v>101134.42</v>
+      </c>
+      <c r="C11" t="n">
+        <v>99614.5</v>
       </c>
     </row>
     <row r="12">
@@ -547,67 +582,88 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4283.53</v>
+        <v>4281.77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4294.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12720.45</v>
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>317308.37</v>
+        <v>7609.46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5890.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>555460.21</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36036.76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35588.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37264.82</v>
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98318.11</v>
+        <v>11863.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11655.46</v>
       </c>
     </row>
     <row r="19">
@@ -617,27 +673,36 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>20781.83</v>
+      </c>
+      <c r="C19" t="n">
         <v>20730.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11038.16</v>
+        <v>76800.46000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>76450.74000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9896.459999999999</v>
+        <v>1382408.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1376113.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,261 +443,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59122.34</v>
-      </c>
-      <c r="C2" t="n">
-        <v>58726.12</v>
+        <v>1461294.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95731.47</v>
-      </c>
-      <c r="C3" t="n">
-        <v>94707.83</v>
+        <v>73064.74000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43524.21</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41878.61</v>
+        <v>58726.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9903.33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9904.09</v>
+        <v>94707.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11038.79</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11053.06</v>
+        <v>7848.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12715.35</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12684.59</v>
+        <v>77333.28999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>316492.23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>316993.77</v>
+        <v>41878.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>557617.29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>557793.5699999999</v>
+        <v>9904.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94555.05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>94597.02</v>
+        <v>11053.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101134.42</v>
-      </c>
-      <c r="C11" t="n">
-        <v>99614.5</v>
+        <v>94597.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4281.77</v>
-      </c>
-      <c r="C12" t="n">
         <v>4294.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+        <v>12684.59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7609.46</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5890.31</v>
+        <v>316993.77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+        <v>557793.5699999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36036.76</v>
-      </c>
-      <c r="C16" t="n">
-        <v>35588.8</v>
+        <v>99614.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11863.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11655.46</v>
+        <v>5890.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20781.83</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20730.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76800.46000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>76450.74000000001</v>
+        <v>35588.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1382408.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1376113.33</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11655.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20730.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,225 +439,282 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1461294.85</v>
+        <v>58726.12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59541.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73064.74000000001</v>
+        <v>94707.83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>95954.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58726.12</v>
+        <v>7848.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9008.200000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94707.83</v>
+        <v>77333.28999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>76967.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7848.23</v>
+        <v>41878.61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42273.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77333.28999999999</v>
+        <v>9904.09</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9899.360000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41878.61</v>
+        <v>11053.06</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11044.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9904.09</v>
-      </c>
+        <v>94597.02</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11053.06</v>
-      </c>
+        <v>4294.73</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94597.02</v>
-      </c>
+        <v>12684.59</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4294.73</v>
-      </c>
+        <v>316993.77</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12684.59</v>
-      </c>
+        <v>557793.5699999999</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316993.77</v>
-      </c>
+        <v>99614.5</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>557793.5699999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99614.5</v>
+        <v>5890.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6494.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5890.31</v>
+        <v>35588.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36244.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35588.8</v>
+        <v>11655.46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11703.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>20730.87</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20804.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11655.46</v>
+        <v>73064.74000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>29225.82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20730.87</v>
+        <v>1461294.85</v>
+      </c>
+      <c r="C23" t="n">
+        <v>379935.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>59541.42</v>
       </c>
+      <c r="D2" t="n">
+        <v>59520.48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>95954.91</v>
       </c>
+      <c r="D3" t="n">
+        <v>93212.55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>9008.200000000001</v>
       </c>
+      <c r="D4" t="n">
+        <v>8636.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>76967.06</v>
       </c>
+      <c r="D5" t="n">
+        <v>76958.50999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>42273.13</v>
       </c>
+      <c r="D6" t="n">
+        <v>36692.47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>9899.360000000001</v>
       </c>
+      <c r="D7" t="n">
+        <v>9901.879999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>11044.29</v>
       </c>
+      <c r="D8" t="n">
+        <v>11068.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -546,6 +572,9 @@
         <v>94597.02</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>94712.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -557,6 +586,9 @@
         <v>4294.73</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>4275.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -568,6 +600,9 @@
         <v>12684.59</v>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>12690.48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -579,6 +614,9 @@
         <v>316993.77</v>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>316777.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -590,6 +628,9 @@
         <v>557793.5699999999</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>548580.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -601,6 +642,9 @@
         <v>99614.5</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>100822.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -612,6 +656,9 @@
         <v>0</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -625,6 +672,9 @@
       <c r="C16" t="n">
         <v>6494.77</v>
       </c>
+      <c r="D16" t="n">
+        <v>7096.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -638,6 +688,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -651,6 +704,9 @@
       <c r="C18" t="n">
         <v>36244.61</v>
       </c>
+      <c r="D18" t="n">
+        <v>29979.03</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -664,6 +720,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -677,6 +736,9 @@
       <c r="C20" t="n">
         <v>11703.27</v>
       </c>
+      <c r="D20" t="n">
+        <v>11695.21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -690,6 +752,9 @@
       <c r="C21" t="n">
         <v>20804.67</v>
       </c>
+      <c r="D21" t="n">
+        <v>21025.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -703,6 +768,9 @@
       <c r="C22" t="n">
         <v>29225.82</v>
       </c>
+      <c r="D22" t="n">
+        <v>72182.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -715,6 +783,9 @@
       </c>
       <c r="C23" t="n">
         <v>379935.69</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1443645.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>59520.48</v>
       </c>
+      <c r="E2" t="n">
+        <v>59828.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>93212.55</v>
       </c>
+      <c r="E3" t="n">
+        <v>93351.17999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>8636.5</v>
       </c>
+      <c r="E4" t="n">
+        <v>8547.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>76958.50999999999</v>
       </c>
+      <c r="E5" t="n">
+        <v>76903.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>36692.47</v>
       </c>
+      <c r="E6" t="n">
+        <v>36744.86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>9901.879999999999</v>
       </c>
+      <c r="E7" t="n">
+        <v>9902.690000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -560,6 +583,9 @@
       </c>
       <c r="D8" t="n">
         <v>11068.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11058</v>
       </c>
     </row>
     <row r="9">
@@ -575,6 +601,9 @@
       <c r="D9" t="n">
         <v>94712.52</v>
       </c>
+      <c r="E9" t="n">
+        <v>94559.83</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -589,6 +618,9 @@
       <c r="D10" t="n">
         <v>4275.52</v>
       </c>
+      <c r="E10" t="n">
+        <v>4301.82</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -603,6 +635,9 @@
       <c r="D11" t="n">
         <v>12690.48</v>
       </c>
+      <c r="E11" t="n">
+        <v>12678.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -617,6 +652,9 @@
       <c r="D12" t="n">
         <v>316777.85</v>
       </c>
+      <c r="E12" t="n">
+        <v>316365.78</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -631,6 +669,9 @@
       <c r="D13" t="n">
         <v>548580.01</v>
       </c>
+      <c r="E13" t="n">
+        <v>546065.21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -645,6 +686,9 @@
       <c r="D14" t="n">
         <v>100822.19</v>
       </c>
+      <c r="E14" t="n">
+        <v>99007.10000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -659,6 +703,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -675,6 +722,9 @@
       <c r="D16" t="n">
         <v>7096.01</v>
       </c>
+      <c r="E16" t="n">
+        <v>7466.64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -691,6 +741,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -707,6 +760,9 @@
       <c r="D18" t="n">
         <v>29979.03</v>
       </c>
+      <c r="E18" t="n">
+        <v>30439.62</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -723,6 +779,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -739,6 +798,9 @@
       <c r="D20" t="n">
         <v>11695.21</v>
       </c>
+      <c r="E20" t="n">
+        <v>11883.09</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -755,6 +817,7 @@
       <c r="D21" t="n">
         <v>21025.98</v>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -771,6 +834,9 @@
       <c r="D22" t="n">
         <v>72182.3</v>
       </c>
+      <c r="E22" t="n">
+        <v>74689.66</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -786,6 +852,9 @@
       </c>
       <c r="D23" t="n">
         <v>1443645.99</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1419103.61</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>59828.9</v>
       </c>
+      <c r="F2" t="n">
+        <v>59300.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>93351.17999999999</v>
       </c>
+      <c r="F3" t="n">
+        <v>94346.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>8547.33</v>
       </c>
+      <c r="F4" t="n">
+        <v>8788.790000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>76903.16</v>
       </c>
+      <c r="F5" t="n">
+        <v>77550.03999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>36744.86</v>
       </c>
+      <c r="F6" t="n">
+        <v>41007.84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>9902.690000000001</v>
       </c>
+      <c r="F7" t="n">
+        <v>9901.969999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -586,6 +609,9 @@
       </c>
       <c r="E8" t="n">
         <v>11058</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11055.8</v>
       </c>
     </row>
     <row r="9">
@@ -604,6 +630,9 @@
       <c r="E9" t="n">
         <v>94559.83</v>
       </c>
+      <c r="F9" t="n">
+        <v>94504.27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -621,6 +650,9 @@
       <c r="E10" t="n">
         <v>4301.82</v>
       </c>
+      <c r="F10" t="n">
+        <v>4273.28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -638,6 +670,9 @@
       <c r="E11" t="n">
         <v>12678.4</v>
       </c>
+      <c r="F11" t="n">
+        <v>12723.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -655,6 +690,9 @@
       <c r="E12" t="n">
         <v>316365.78</v>
       </c>
+      <c r="F12" t="n">
+        <v>316001.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -672,6 +710,9 @@
       <c r="E13" t="n">
         <v>546065.21</v>
       </c>
+      <c r="F13" t="n">
+        <v>549096.54</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +730,9 @@
       <c r="E14" t="n">
         <v>99007.10000000001</v>
       </c>
+      <c r="F14" t="n">
+        <v>99027.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -706,6 +750,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +772,9 @@
       <c r="E16" t="n">
         <v>7466.64</v>
       </c>
+      <c r="F16" t="n">
+        <v>6481.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -744,6 +794,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -763,6 +816,9 @@
       <c r="E18" t="n">
         <v>30439.62</v>
       </c>
+      <c r="F18" t="n">
+        <v>30236.09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -782,6 +838,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -801,6 +860,9 @@
       <c r="E20" t="n">
         <v>11883.09</v>
       </c>
+      <c r="F20" t="n">
+        <v>11805.07</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -818,6 +880,7 @@
         <v>21025.98</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -837,6 +900,9 @@
       <c r="E22" t="n">
         <v>74689.66</v>
       </c>
+      <c r="F22" t="n">
+        <v>75057.87</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -855,6 +921,9 @@
       </c>
       <c r="E23" t="n">
         <v>1419103.61</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1426099.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>59300.69</v>
       </c>
+      <c r="G2" t="n">
+        <v>59635.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>94346.3</v>
       </c>
+      <c r="G3" t="n">
+        <v>93525.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>8788.790000000001</v>
       </c>
+      <c r="G4" t="n">
+        <v>8373.709999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>77550.03999999999</v>
       </c>
+      <c r="G5" t="n">
+        <v>77173.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>41007.84</v>
       </c>
+      <c r="G6" t="n">
+        <v>39033.47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>9901.969999999999</v>
       </c>
+      <c r="G7" t="n">
+        <v>9901.58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -612,6 +635,9 @@
       </c>
       <c r="F8" t="n">
         <v>11055.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10998.12</v>
       </c>
     </row>
     <row r="9">
@@ -633,6 +659,9 @@
       <c r="F9" t="n">
         <v>94504.27</v>
       </c>
+      <c r="G9" t="n">
+        <v>94513.64999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -653,6 +682,9 @@
       <c r="F10" t="n">
         <v>4273.28</v>
       </c>
+      <c r="G10" t="n">
+        <v>4279.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -673,6 +705,9 @@
       <c r="F11" t="n">
         <v>12723.1</v>
       </c>
+      <c r="G11" t="n">
+        <v>12694.39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -693,6 +728,9 @@
       <c r="F12" t="n">
         <v>316001.18</v>
       </c>
+      <c r="G12" t="n">
+        <v>315975.65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -713,6 +751,9 @@
       <c r="F13" t="n">
         <v>549096.54</v>
       </c>
+      <c r="G13" t="n">
+        <v>549029.84</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +774,9 @@
       <c r="F14" t="n">
         <v>99027.23</v>
       </c>
+      <c r="G14" t="n">
+        <v>100339.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -753,6 +797,9 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +822,9 @@
       <c r="F16" t="n">
         <v>6481.33</v>
       </c>
+      <c r="G16" t="n">
+        <v>6329.17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -797,6 +847,9 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -819,6 +872,9 @@
       <c r="F18" t="n">
         <v>30236.09</v>
       </c>
+      <c r="G18" t="n">
+        <v>26015.97</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -841,6 +897,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -863,6 +922,9 @@
       <c r="F20" t="n">
         <v>11805.07</v>
       </c>
+      <c r="G20" t="n">
+        <v>11924.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -881,6 +943,7 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -903,6 +966,9 @@
       <c r="F22" t="n">
         <v>75057.87</v>
       </c>
+      <c r="G22" t="n">
+        <v>74723.34</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -924,6 +990,9 @@
       </c>
       <c r="F23" t="n">
         <v>1426099.52</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1419743.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>59635.8</v>
       </c>
+      <c r="H2" t="n">
+        <v>58922.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>93525.84</v>
       </c>
+      <c r="H3" t="n">
+        <v>93566.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>8373.709999999999</v>
       </c>
+      <c r="H4" t="n">
+        <v>8395.969999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>77173.31</v>
       </c>
+      <c r="H5" t="n">
+        <v>77227.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>39033.47</v>
       </c>
+      <c r="H6" t="n">
+        <v>38117.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>9901.58</v>
       </c>
+      <c r="H7" t="n">
+        <v>9890.48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -638,6 +661,9 @@
       </c>
       <c r="G8" t="n">
         <v>10998.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11042.43</v>
       </c>
     </row>
     <row r="9">
@@ -662,6 +688,9 @@
       <c r="G9" t="n">
         <v>94513.64999999999</v>
       </c>
+      <c r="H9" t="n">
+        <v>94682.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -685,6 +714,9 @@
       <c r="G10" t="n">
         <v>4279.97</v>
       </c>
+      <c r="H10" t="n">
+        <v>4293.63</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -708,6 +740,9 @@
       <c r="G11" t="n">
         <v>12694.39</v>
       </c>
+      <c r="H11" t="n">
+        <v>12702.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -731,6 +766,9 @@
       <c r="G12" t="n">
         <v>315975.65</v>
       </c>
+      <c r="H12" t="n">
+        <v>315870.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -754,6 +792,9 @@
       <c r="G13" t="n">
         <v>549029.84</v>
       </c>
+      <c r="H13" t="n">
+        <v>533949.39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +818,9 @@
       <c r="G14" t="n">
         <v>100339.03</v>
       </c>
+      <c r="H14" t="n">
+        <v>98210.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -800,6 +844,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +872,9 @@
       <c r="G16" t="n">
         <v>6329.17</v>
       </c>
+      <c r="H16" t="n">
+        <v>6136.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -850,6 +900,9 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -875,6 +928,9 @@
       <c r="G18" t="n">
         <v>26015.97</v>
       </c>
+      <c r="H18" t="n">
+        <v>25681.86</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -900,6 +956,9 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -924,6 +983,9 @@
       </c>
       <c r="G20" t="n">
         <v>11924.04</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11686.62</v>
       </c>
     </row>
     <row r="21">
@@ -944,6 +1006,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1032,9 @@
       <c r="G22" t="n">
         <v>74723.34</v>
       </c>
+      <c r="H22" t="n">
+        <v>73703.92999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1059,9 @@
       </c>
       <c r="G23" t="n">
         <v>1419743.54</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1400374.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>58922.23</v>
       </c>
+      <c r="I2" t="n">
+        <v>58796.34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>93566.38</v>
       </c>
+      <c r="I3" t="n">
+        <v>94846.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>8395.969999999999</v>
       </c>
+      <c r="I4" t="n">
+        <v>8694.84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>77227.2</v>
       </c>
+      <c r="I5" t="n">
+        <v>77106.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>38117.31</v>
       </c>
+      <c r="I6" t="n">
+        <v>39449.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>9890.48</v>
       </c>
+      <c r="I7" t="n">
+        <v>9891.040000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -664,6 +687,9 @@
       </c>
       <c r="H8" t="n">
         <v>11042.43</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11041.86</v>
       </c>
     </row>
     <row r="9">
@@ -691,6 +717,9 @@
       <c r="H9" t="n">
         <v>94682.16</v>
       </c>
+      <c r="I9" t="n">
+        <v>94690.67999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -717,6 +746,9 @@
       <c r="H10" t="n">
         <v>4293.63</v>
       </c>
+      <c r="I10" t="n">
+        <v>4301.93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -743,6 +775,9 @@
       <c r="H11" t="n">
         <v>12702.11</v>
       </c>
+      <c r="I11" t="n">
+        <v>12721.32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -769,6 +804,9 @@
       <c r="H12" t="n">
         <v>315870.35</v>
       </c>
+      <c r="I12" t="n">
+        <v>315916.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -795,6 +833,9 @@
       <c r="H13" t="n">
         <v>533949.39</v>
       </c>
+      <c r="I13" t="n">
+        <v>534149.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +862,9 @@
       <c r="H14" t="n">
         <v>98210.03</v>
       </c>
+      <c r="I14" t="n">
+        <v>99391.94</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -847,6 +891,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +922,9 @@
       <c r="H16" t="n">
         <v>6136.53</v>
       </c>
+      <c r="I16" t="n">
+        <v>6371.15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -903,6 +953,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>901.0599999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -931,6 +984,9 @@
       <c r="H18" t="n">
         <v>25681.86</v>
       </c>
+      <c r="I18" t="n">
+        <v>26102.63</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -959,6 +1015,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -986,6 +1045,9 @@
       </c>
       <c r="H20" t="n">
         <v>11686.62</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11630.75</v>
       </c>
     </row>
     <row r="21">
@@ -1007,6 +1069,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1035,6 +1098,9 @@
       <c r="H22" t="n">
         <v>73703.92999999999</v>
       </c>
+      <c r="I22" t="n">
+        <v>74000.27</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1062,6 +1128,9 @@
       </c>
       <c r="H23" t="n">
         <v>1400374.68</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1406005.07</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>58796.34</v>
       </c>
+      <c r="J2" t="n">
+        <v>58904.24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>94846.78</v>
       </c>
+      <c r="J3" t="n">
+        <v>93609.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>8694.84</v>
       </c>
+      <c r="J4" t="n">
+        <v>8788.309999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>77106.2</v>
       </c>
+      <c r="J5" t="n">
+        <v>76927.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>39449.7</v>
       </c>
+      <c r="J6" t="n">
+        <v>39945.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>9891.040000000001</v>
       </c>
+      <c r="J7" t="n">
+        <v>9903.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -690,6 +713,9 @@
       </c>
       <c r="I8" t="n">
         <v>11041.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11047.36</v>
       </c>
     </row>
     <row r="9">
@@ -720,6 +746,9 @@
       <c r="I9" t="n">
         <v>94690.67999999999</v>
       </c>
+      <c r="J9" t="n">
+        <v>94514.81</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -749,6 +778,9 @@
       <c r="I10" t="n">
         <v>4301.93</v>
       </c>
+      <c r="J10" t="n">
+        <v>4297.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -778,6 +810,9 @@
       <c r="I11" t="n">
         <v>12721.32</v>
       </c>
+      <c r="J11" t="n">
+        <v>12720.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -807,6 +842,9 @@
       <c r="I12" t="n">
         <v>315916.95</v>
       </c>
+      <c r="J12" t="n">
+        <v>316607.51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -836,6 +874,9 @@
       <c r="I13" t="n">
         <v>534149.9</v>
       </c>
+      <c r="J13" t="n">
+        <v>533907.6899999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -865,6 +906,9 @@
       <c r="I14" t="n">
         <v>99391.94</v>
       </c>
+      <c r="J14" t="n">
+        <v>98728.91</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -894,6 +938,9 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -925,6 +972,9 @@
       <c r="I16" t="n">
         <v>6371.15</v>
       </c>
+      <c r="J16" t="n">
+        <v>6449.26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -956,6 +1006,9 @@
       <c r="I17" t="n">
         <v>901.0599999999999</v>
       </c>
+      <c r="J17" t="n">
+        <v>876.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -987,6 +1040,9 @@
       <c r="I18" t="n">
         <v>26102.63</v>
       </c>
+      <c r="J18" t="n">
+        <v>26023.52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1018,6 +1074,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1048,6 +1107,9 @@
       </c>
       <c r="I20" t="n">
         <v>11630.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11737.71</v>
       </c>
     </row>
     <row r="21">
@@ -1070,6 +1132,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1101,6 +1164,9 @@
       <c r="I22" t="n">
         <v>74000.27</v>
       </c>
+      <c r="J22" t="n">
+        <v>73946.78999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1131,6 +1197,9 @@
       </c>
       <c r="I23" t="n">
         <v>1406005.07</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1404989.1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>58904.24</v>
       </c>
+      <c r="K2" t="n">
+        <v>59179.51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>93609.06</v>
       </c>
+      <c r="K3" t="n">
+        <v>94584.77</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>8788.309999999999</v>
       </c>
+      <c r="K4" t="n">
+        <v>8998.459999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>76927.89</v>
       </c>
+      <c r="K5" t="n">
+        <v>76940.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>39945.29</v>
       </c>
+      <c r="K6" t="n">
+        <v>41153.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>9903.5</v>
       </c>
+      <c r="K7" t="n">
+        <v>9894.18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -716,6 +739,9 @@
       </c>
       <c r="J8" t="n">
         <v>11047.36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11035.31</v>
       </c>
     </row>
     <row r="9">
@@ -749,6 +775,9 @@
       <c r="J9" t="n">
         <v>94514.81</v>
       </c>
+      <c r="K9" t="n">
+        <v>94777.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -781,6 +810,9 @@
       <c r="J10" t="n">
         <v>4297.14</v>
       </c>
+      <c r="K10" t="n">
+        <v>4301.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -813,6 +845,9 @@
       <c r="J11" t="n">
         <v>12720.7</v>
       </c>
+      <c r="K11" t="n">
+        <v>12719.72</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -845,6 +880,9 @@
       <c r="J12" t="n">
         <v>316607.51</v>
       </c>
+      <c r="K12" t="n">
+        <v>317130.74</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -877,6 +915,9 @@
       <c r="J13" t="n">
         <v>533907.6899999999</v>
       </c>
+      <c r="K13" t="n">
+        <v>526715.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -909,6 +950,9 @@
       <c r="J14" t="n">
         <v>98728.91</v>
       </c>
+      <c r="K14" t="n">
+        <v>99177.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -941,6 +985,9 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,6 +1022,9 @@
       <c r="J16" t="n">
         <v>6449.26</v>
       </c>
+      <c r="K16" t="n">
+        <v>6452.81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1009,6 +1059,9 @@
       <c r="J17" t="n">
         <v>876.2</v>
       </c>
+      <c r="K17" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1043,6 +1096,9 @@
       <c r="J18" t="n">
         <v>26023.52</v>
       </c>
+      <c r="K18" t="n">
+        <v>25910.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1077,6 +1133,9 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1110,6 +1169,9 @@
       </c>
       <c r="J20" t="n">
         <v>11737.71</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11665.11</v>
       </c>
     </row>
     <row r="21">
@@ -1133,6 +1195,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1167,6 +1230,9 @@
       <c r="J22" t="n">
         <v>73946.78999999999</v>
       </c>
+      <c r="K22" t="n">
+        <v>73762.39999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1200,6 +1266,9 @@
       </c>
       <c r="J23" t="n">
         <v>1404989.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1401485.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>59179.51</v>
       </c>
+      <c r="L2" t="n">
+        <v>59894.57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>94584.77</v>
       </c>
+      <c r="L3" t="n">
+        <v>93617.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>8998.459999999999</v>
       </c>
+      <c r="L4" t="n">
+        <v>8017.62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>76940.34</v>
       </c>
+      <c r="L5" t="n">
+        <v>77029.64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>41153.44</v>
       </c>
+      <c r="L6" t="n">
+        <v>36456.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>9894.18</v>
       </c>
+      <c r="L7" t="n">
+        <v>9901.98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -742,6 +765,9 @@
       </c>
       <c r="K8" t="n">
         <v>11035.31</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11005.58</v>
       </c>
     </row>
     <row r="9">
@@ -778,6 +804,9 @@
       <c r="K9" t="n">
         <v>94777.97</v>
       </c>
+      <c r="L9" t="n">
+        <v>94727.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -813,6 +842,9 @@
       <c r="K10" t="n">
         <v>4301.22</v>
       </c>
+      <c r="L10" t="n">
+        <v>4274.57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -848,6 +880,9 @@
       <c r="K11" t="n">
         <v>12719.72</v>
       </c>
+      <c r="L11" t="n">
+        <v>12686.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -883,6 +918,9 @@
       <c r="K12" t="n">
         <v>317130.74</v>
       </c>
+      <c r="L12" t="n">
+        <v>316902.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -918,6 +956,9 @@
       <c r="K13" t="n">
         <v>526715.36</v>
       </c>
+      <c r="L13" t="n">
+        <v>524269.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -953,6 +994,9 @@
       <c r="K14" t="n">
         <v>99177.11</v>
       </c>
+      <c r="L14" t="n">
+        <v>100127.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -988,6 +1032,9 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1025,6 +1072,9 @@
       <c r="K16" t="n">
         <v>6452.81</v>
       </c>
+      <c r="L16" t="n">
+        <v>6627.78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1062,6 +1112,9 @@
       <c r="K17" t="n">
         <v>849</v>
       </c>
+      <c r="L17" t="n">
+        <v>828.74</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1099,6 +1152,9 @@
       <c r="K18" t="n">
         <v>25910.5</v>
       </c>
+      <c r="L18" t="n">
+        <v>26036.98</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1136,6 +1192,9 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1172,6 +1231,9 @@
       </c>
       <c r="K20" t="n">
         <v>11665.11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11820.16</v>
       </c>
     </row>
     <row r="21">
@@ -1196,6 +1258,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1233,6 +1296,9 @@
       <c r="K22" t="n">
         <v>73762.39999999999</v>
       </c>
+      <c r="L22" t="n">
+        <v>73380.25999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1269,6 +1335,9 @@
       </c>
       <c r="K23" t="n">
         <v>1401485.55</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1394224.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>59894.57</v>
       </c>
+      <c r="M2" t="n">
+        <v>59550.86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>93617.8</v>
       </c>
+      <c r="M3" t="n">
+        <v>94919.47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>8017.62</v>
       </c>
+      <c r="M4" t="n">
+        <v>8647.969999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>77029.64</v>
       </c>
+      <c r="M5" t="n">
+        <v>77117.58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>36456.7</v>
       </c>
+      <c r="M6" t="n">
+        <v>43911.71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>9901.98</v>
       </c>
+      <c r="M7" t="n">
+        <v>9895.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -768,6 +791,9 @@
       </c>
       <c r="L8" t="n">
         <v>11005.58</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11016.33</v>
       </c>
     </row>
     <row r="9">
@@ -807,6 +833,9 @@
       <c r="L9" t="n">
         <v>94727.08</v>
       </c>
+      <c r="M9" t="n">
+        <v>94795.78999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -845,6 +874,9 @@
       <c r="L10" t="n">
         <v>4274.57</v>
       </c>
+      <c r="M10" t="n">
+        <v>4296.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -883,6 +915,9 @@
       <c r="L11" t="n">
         <v>12686.55</v>
       </c>
+      <c r="M11" t="n">
+        <v>8010.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -921,6 +956,9 @@
       <c r="L12" t="n">
         <v>316902.31</v>
       </c>
+      <c r="M12" t="n">
+        <v>316236.17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -959,6 +997,9 @@
       <c r="L13" t="n">
         <v>524269.7</v>
       </c>
+      <c r="M13" t="n">
+        <v>525036.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -997,6 +1038,9 @@
       <c r="L14" t="n">
         <v>100127.22</v>
       </c>
+      <c r="M14" t="n">
+        <v>100433.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1035,6 +1079,9 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1075,6 +1122,9 @@
       <c r="L16" t="n">
         <v>6627.78</v>
       </c>
+      <c r="M16" t="n">
+        <v>6508.56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1115,6 +1165,9 @@
       <c r="L17" t="n">
         <v>828.74</v>
       </c>
+      <c r="M17" t="n">
+        <v>804.88</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1155,6 +1208,9 @@
       <c r="L18" t="n">
         <v>26036.98</v>
       </c>
+      <c r="M18" t="n">
+        <v>25221.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1195,6 +1251,9 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1234,6 +1293,9 @@
       </c>
       <c r="L20" t="n">
         <v>11820.16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11881.19</v>
       </c>
     </row>
     <row r="21">
@@ -1259,6 +1321,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1299,6 +1362,9 @@
       <c r="L22" t="n">
         <v>73380.25999999999</v>
       </c>
+      <c r="M22" t="n">
+        <v>73593.89</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1338,6 +1404,9 @@
       </c>
       <c r="L23" t="n">
         <v>1394224.98</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1398283.88</v>
       </c>
     </row>
   </sheetData>
